--- a/NformTester/NformTester/keywordscripts/TST465_ConfigureTrendingGraph.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST465_ConfigureTrendingGraph.xlsx
@@ -4838,7 +4838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5047,7 +5049,7 @@
         <v>774</v>
       </c>
       <c r="B7" s="4">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>

--- a/NformTester/NformTester/keywordscripts/TST465_ConfigureTrendingGraph.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST465_ConfigureTrendingGraph.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7536" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7536" uniqueCount="863">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3627,9 +3627,6 @@
     <t>"SNMP"</t>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>;Clear operation.</t>
   </si>
   <si>
@@ -3643,10 +3640,6 @@
     <t>;</t>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Liebert GXT UPS/WebCard"</t>
   </si>
   <si>
@@ -3757,9 +3750,6 @@
   </si>
   <si>
     <t>FromTime</t>
-  </si>
-  <si>
-    <t>"10{RIGHT}20{RIGHT}50{LEFT}{LEFT}"</t>
   </si>
   <si>
     <t>ToDate</t>
@@ -3804,9 +3794,6 @@
     <t>2012-01-03</t>
   </si>
   <si>
-    <t>10:20:50</t>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3833,6 +3820,24 @@
   </si>
   <si>
     <t xml:space="preserve">2. It should verify that the graph should be plotted with the duration/specific time. </t>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>$GXT_0$</t>
+  </si>
+  <si>
+    <t>"00{RIGHT}00{RIGHT}00{LEFT}{LEFT}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"00{RIGHT}00{RIGHT}00{LEFT}{LEFT}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4838,8 +4843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="F55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4933,7 +4938,7 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4974,7 +4979,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -5005,7 +5010,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -5030,7 +5035,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5055,7 +5060,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5074,7 +5079,7 @@
         <v>765</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -5093,16 +5098,16 @@
         <v>795</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>803</v>
+        <v>858</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>798</v>
+        <v>859</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>796</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>797</v>
@@ -5121,7 +5126,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="5"/>
@@ -5212,7 +5217,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>798</v>
+        <v>859</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -5407,7 +5412,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -5474,7 +5479,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>798</v>
+        <v>859</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -5494,7 +5499,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>2</v>
@@ -5519,7 +5524,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>2</v>
@@ -5579,10 +5584,10 @@
         <v>7</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="J25" s="11" t="b">
         <v>1</v>
@@ -5598,7 +5603,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="5"/>
@@ -5629,7 +5634,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="5"/>
@@ -5656,7 +5661,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="5"/>
@@ -5696,7 +5701,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="5"/>
@@ -5715,7 +5720,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="5"/>
@@ -5740,7 +5745,7 @@
         <v>19</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>142</v>
@@ -5765,16 +5770,16 @@
         <v>19</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="J33" s="11" t="b">
         <v>1</v>
@@ -5796,13 +5801,13 @@
         <v>19</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="5"/>
@@ -5823,13 +5828,13 @@
         <v>19</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="5"/>
@@ -5850,13 +5855,13 @@
         <v>19</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="5"/>
@@ -5877,7 +5882,7 @@
         <v>19</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>2</v>
@@ -5896,7 +5901,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="5"/>
@@ -5921,16 +5926,16 @@
         <v>19</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J39" s="5">
         <v>15</v>
@@ -5951,19 +5956,19 @@
         <v>19</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H40" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="J40" s="11" t="s">
         <v>825</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>826</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>827</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -5975,7 +5980,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="5"/>
@@ -5999,7 +6004,7 @@
         <v>19</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>142</v>
@@ -6023,13 +6028,13 @@
         <v>19</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I43" s="11" t="b">
         <v>1</v>
@@ -6051,13 +6056,13 @@
         <v>19</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="5"/>
@@ -6077,13 +6082,13 @@
         <v>19</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="5"/>
@@ -6103,13 +6108,13 @@
         <v>19</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="5"/>
@@ -6129,7 +6134,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>2</v>
@@ -6147,7 +6152,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="5"/>
@@ -6171,16 +6176,16 @@
         <v>19</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J49" s="5">
         <v>2</v>
@@ -6201,19 +6206,19 @@
         <v>19</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H50" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="J50" s="11" t="s">
         <v>825</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>826</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>827</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -6225,7 +6230,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="5"/>
@@ -6243,7 +6248,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="5"/>
@@ -6267,7 +6272,7 @@
         <v>19</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>2</v>
@@ -6291,13 +6296,13 @@
         <v>19</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="5"/>
@@ -6317,13 +6322,13 @@
         <v>19</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>839</v>
+        <v>860</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="5"/>
@@ -6343,13 +6348,13 @@
         <v>19</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="5"/>
@@ -6369,13 +6374,13 @@
         <v>19</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>839</v>
+        <v>860</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="5"/>
@@ -6395,7 +6400,7 @@
         <v>19</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>2</v>
@@ -6413,7 +6418,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="5"/>
@@ -6437,19 +6442,19 @@
         <v>19</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="J60" s="17" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
@@ -6467,19 +6472,19 @@
         <v>19</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
@@ -6491,7 +6496,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="5"/>
@@ -6515,7 +6520,7 @@
         <v>19</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>2</v>
@@ -6539,13 +6544,13 @@
         <v>19</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="5"/>
@@ -6565,13 +6570,13 @@
         <v>19</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>839</v>
+        <v>860</v>
       </c>
       <c r="I65" s="11"/>
       <c r="J65" s="5"/>
@@ -6591,13 +6596,13 @@
         <v>19</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I66" s="11"/>
       <c r="J66" s="5"/>
@@ -6617,13 +6622,13 @@
         <v>19</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>839</v>
+        <v>861</v>
       </c>
       <c r="I67" s="11"/>
       <c r="J67" s="5"/>
@@ -6643,7 +6648,7 @@
         <v>19</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>2</v>
@@ -6661,7 +6666,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="5"/>
@@ -6685,19 +6690,19 @@
         <v>19</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="J70" s="17" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
@@ -6715,19 +6720,19 @@
         <v>19</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="J71" s="17" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
@@ -6739,7 +6744,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="5"/>
@@ -6763,7 +6768,7 @@
         <v>19</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>2</v>
@@ -6787,13 +6792,13 @@
         <v>19</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I74" s="11"/>
       <c r="J74" s="5"/>
@@ -6813,13 +6818,13 @@
         <v>19</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>839</v>
+        <v>860</v>
       </c>
       <c r="I75" s="11"/>
       <c r="J75" s="5"/>
@@ -6839,13 +6844,13 @@
         <v>19</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I76" s="11"/>
       <c r="J76" s="5"/>
@@ -6865,13 +6870,13 @@
         <v>19</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>839</v>
+        <v>860</v>
       </c>
       <c r="I77" s="11"/>
       <c r="J77" s="5"/>
@@ -6891,7 +6896,7 @@
         <v>19</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>2</v>
@@ -6909,7 +6914,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="5"/>
@@ -6933,19 +6938,19 @@
         <v>19</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I80" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="J80" s="17" t="s">
         <v>849</v>
-      </c>
-      <c r="J80" s="17" t="s">
-        <v>852</v>
       </c>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
@@ -6963,19 +6968,19 @@
         <v>19</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
@@ -6993,19 +6998,19 @@
         <v>19</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
@@ -7023,19 +7028,19 @@
         <v>19</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
@@ -7047,7 +7052,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="5"/>
@@ -7065,7 +7070,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>756</v>
@@ -7135,10 +7140,10 @@
         <v>87</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>578</v>
@@ -7147,7 +7152,7 @@
         <v>3</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -7161,10 +7166,10 @@
         <v>88</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>184</v>
@@ -7185,7 +7190,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>585</v>
@@ -7209,10 +7214,10 @@
         <v>90</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>99</v>
@@ -29159,22 +29164,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST465_ConfigureTrendingGraph.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST465_ConfigureTrendingGraph.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7536" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7537" uniqueCount="864">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3802,10 +3802,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Equal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3822,12 +3818,6 @@
     <t xml:space="preserve">2. It should verify that the graph should be plotted with the duration/specific time. </t>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0$</t>
-  </si>
-  <si>
     <t>"00{RIGHT}00{RIGHT}00{LEFT}{LEFT}"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3837,6 +3827,22 @@
   </si>
   <si>
     <t>00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4843,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5076,11 +5082,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>852</v>
-      </c>
+        <v>860</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -5098,10 +5102,10 @@
         <v>795</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>796</v>
@@ -5117,11 +5121,9 @@
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>776</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -5141,8 +5143,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>776</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -5168,10 +5174,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -5198,7 +5202,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -5217,7 +5221,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -5229,7 +5233,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -5258,7 +5262,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -5287,7 +5291,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -5316,7 +5320,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -5344,10 +5348,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>783</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -5375,7 +5379,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -5402,11 +5406,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" ht="15">
-      <c r="A19" s="3" t="s">
-        <v>785</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -5428,9 +5430,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>785</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>776</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5457,7 +5461,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5479,7 +5483,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -5489,6 +5493,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5587,7 +5595,7 @@
         <v>811</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J25" s="11" t="b">
         <v>1</v>
@@ -5779,7 +5787,7 @@
         <v>816</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J33" s="11" t="b">
         <v>1</v>
@@ -6036,10 +6044,12 @@
       <c r="H43" s="11" t="s">
         <v>816</v>
       </c>
-      <c r="I43" s="11" t="b">
+      <c r="I43" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="J43" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -6328,7 +6338,7 @@
         <v>3</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="5"/>
@@ -6380,7 +6390,7 @@
         <v>3</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="5"/>
@@ -6576,7 +6586,7 @@
         <v>3</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="I65" s="11"/>
       <c r="J65" s="5"/>
@@ -6628,7 +6638,7 @@
         <v>3</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="I67" s="11"/>
       <c r="J67" s="5"/>
@@ -6824,7 +6834,7 @@
         <v>3</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="I75" s="11"/>
       <c r="J75" s="5"/>
@@ -6876,7 +6886,7 @@
         <v>3</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="I77" s="11"/>
       <c r="J77" s="5"/>
@@ -6980,7 +6990,7 @@
         <v>824</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
@@ -7040,7 +7050,7 @@
         <v>824</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
@@ -29164,22 +29174,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
   </sheetData>
